--- a/data/input/employee_absence_data_27.xlsx
+++ b/data/input/employee_absence_data_27.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60774</v>
+        <v>39995</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bianca Pastor</t>
+          <t>Heloísa Borges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,24 +485,24 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45089</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>6913.55</v>
+        <v>6124.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15486</v>
+        <v>88252</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan Mendonça</t>
+          <t>Dr. Erick Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,56 +511,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>5033.66</v>
+        <v>8709.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65648</v>
+        <v>29869</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jade Jesus</t>
+          <t>Sara Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45080</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>3481.9</v>
+        <v>6934.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55978</v>
+        <v>39310</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia Costela</t>
+          <t>Ana Vitória Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,85 +569,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>3271.53</v>
+        <v>5026.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82974</v>
+        <v>24118</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Theo Sales</t>
+          <t>Luan Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45105</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>3843.62</v>
+        <v>5820.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10698</v>
+        <v>97818</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Olívia Freitas</t>
+          <t>Otto da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>6776.24</v>
+        <v>3591.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26744</v>
+        <v>48574</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabriela Azevedo</t>
+          <t>Anna Liz Casa Grande</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,56 +656,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>8526.889999999999</v>
+        <v>8122.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31650</v>
+        <v>60300</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Leonardo Barbosa</t>
+          <t>Sra. Isadora Sá</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45086</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>3010.73</v>
+        <v>7134.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5627</v>
+        <v>35936</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniela Dias</t>
+          <t>Dr. Isaac Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>4227.14</v>
+        <v>8506.610000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83420</v>
+        <v>31740</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Caroline Fogaça</t>
+          <t>Luara Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>5464.58</v>
+        <v>4279.83</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_27.xlsx
+++ b/data/input/employee_absence_data_27.xlsx
@@ -464,190 +464,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39995</v>
+        <v>83444</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heloísa Borges</t>
+          <t>Ana Clara Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45102</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>6124.57</v>
+        <v>7827.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88252</v>
+        <v>23902</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Erick Rodrigues</t>
+          <t>Maria Alice Rios</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45086</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>8709.98</v>
+        <v>3438.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29869</v>
+        <v>6210</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sara Gonçalves</t>
+          <t>Maya Pastor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>6934.36</v>
+        <v>2426.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39310</v>
+        <v>17974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Vitória Fogaça</t>
+          <t>Lavínia da Mata</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>5026.57</v>
+        <v>7865.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24118</v>
+        <v>7165</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luan Dias</t>
+          <t>Sr. Ravi Barbosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45101</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>5820.62</v>
+        <v>2143.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97818</v>
+        <v>28089</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Otto da Cruz</t>
+          <t>Clarice Caldeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>3591.59</v>
+        <v>2407.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48574</v>
+        <v>63028</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anna Liz Casa Grande</t>
+          <t>Giovanna Pacheco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>8122.26</v>
+        <v>9355.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60300</v>
+        <v>49078</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Isadora Sá</t>
+          <t>Maria Cecília da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,75 +681,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>7134.06</v>
+        <v>8634.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35936</v>
+        <v>54664</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Isaac Freitas</t>
+          <t>José Pedro Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>8506.610000000001</v>
+        <v>9292.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31740</v>
+        <v>75701</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luara Barros</t>
+          <t>Melina da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45080</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>4279.83</v>
+        <v>9178.83</v>
       </c>
     </row>
   </sheetData>
